--- a/datasets/industry_haryana.xlsx
+++ b/datasets/industry_haryana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A7C29C-E0AD-4D63-929B-66EA3489543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06987614-32B4-4241-A0D5-3A0DE6C58C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="38">
   <si>
     <t>Panchkula</t>
   </si>
@@ -137,13 +137,22 @@
   </si>
   <si>
     <t>No. of Workers Employed</t>
+  </si>
+  <si>
+    <t>J hajjar</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Mewat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +189,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,14 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -219,17 +228,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,38 +545,38 @@
   <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:D211"/>
+      <selection activeCell="A2" sqref="A1:D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -557,10 +587,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6">
@@ -571,10 +601,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6">
@@ -585,10 +615,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -599,10 +629,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="6">
@@ -613,10 +643,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6">
@@ -627,10 +657,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6">
@@ -641,10 +671,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6">
@@ -655,10 +685,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -669,10 +699,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -683,10 +713,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="6">
@@ -697,10 +727,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="6">
@@ -711,10 +741,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6">
@@ -725,10 +755,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6">
@@ -739,24 +769,24 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
         <v>194</v>
       </c>
       <c r="D16" s="6">
-        <v>1640</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
@@ -767,10 +797,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6">
@@ -781,10 +811,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6">
@@ -795,10 +825,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="6">
@@ -809,10 +839,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="6">
@@ -823,10 +853,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="6">
@@ -837,304 +867,304 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>450</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <v>22595</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <v>229</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <v>15619</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <v>2841</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="10">
         <v>228550</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>135</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="9">
         <v>5401</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>2639</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="10">
         <v>302847</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>424</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="9">
         <v>12114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>673</v>
       </c>
-      <c r="D29" s="6">
-        <v>41750</v>
+      <c r="D29" s="9">
+        <v>4175</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="9">
         <v>202</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="9">
         <v>16220</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>132</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="9">
         <v>3988</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>579</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="9">
         <v>36655</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="9">
         <v>237</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="9">
         <v>7250</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>61</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>12269</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>25</v>
       </c>
-      <c r="D35" s="6">
-        <v>3230</v>
+      <c r="D35" s="9">
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <v>84</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="9">
         <v>6626</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <v>182</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="9">
         <v>14400</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <v>1112</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="9">
         <v>65984</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="9">
         <v>286</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="9">
         <v>35241</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="9">
         <v>346</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="9">
         <v>24225</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="9">
         <v>170</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="9">
         <v>6064</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>834</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="9">
         <v>58269</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="9">
         <v>1290</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="9">
         <v>43210</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="6">
@@ -1145,10 +1175,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="6">
@@ -1159,24 +1189,24 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6">
         <v>2783</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>224307</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="6">
@@ -1187,24 +1217,24 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="6">
         <v>2476</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="7">
         <v>300222</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="6">
@@ -1215,10 +1245,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="6">
@@ -1229,24 +1259,24 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="6">
         <v>202</v>
       </c>
       <c r="D51" s="6">
-        <v>15120</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="6">
@@ -1257,10 +1287,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="6">
@@ -1271,10 +1301,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="6">
@@ -1285,10 +1315,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="6">
@@ -1299,10 +1329,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="6">
@@ -1313,10 +1343,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="6">
@@ -1327,10 +1357,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="6">
@@ -1341,10 +1371,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="6">
@@ -1355,10 +1385,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="6">
@@ -1369,24 +1399,24 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="6">
         <v>358</v>
       </c>
       <c r="D61" s="6">
-        <v>19430</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="6">
@@ -1397,10 +1427,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="6">
@@ -1411,10 +1441,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="6">
@@ -1425,10 +1455,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="6">
@@ -1439,11 +1469,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
+      <c r="B66" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C66" s="6">
         <v>172</v>
@@ -1453,11 +1483,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
+      <c r="B67" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C67" s="6">
         <v>1300</v>
@@ -1467,25 +1497,25 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>7</v>
+      <c r="B68" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C68" s="6">
         <v>179</v>
       </c>
       <c r="D68" s="6">
-        <v>4590</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>14</v>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C69" s="6">
         <v>132</v>
@@ -1495,11 +1525,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>8</v>
+      <c r="B70" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C70" s="6">
         <v>557</v>
@@ -1509,11 +1539,11 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>13</v>
+      <c r="B71" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C71" s="6">
         <v>842</v>
@@ -1523,67 +1553,67 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>6</v>
+      <c r="B72" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C72" s="6">
         <v>773</v>
       </c>
       <c r="D72" s="6">
-        <v>53390</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C73" s="6">
         <v>328</v>
       </c>
       <c r="D73" s="6">
-        <v>18210</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>4</v>
+      <c r="B74" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C74" s="6">
         <v>614</v>
       </c>
       <c r="D74" s="6">
-        <v>34890</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>29</v>
+      <c r="B75" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C75" s="6">
         <v>2763</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="7">
         <v>221416</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>17</v>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C76" s="6">
         <v>72</v>
@@ -1593,25 +1623,25 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>30</v>
+      <c r="B77" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C77" s="6">
         <v>2378</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="7">
         <v>286670</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>18</v>
+      <c r="B78" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C78" s="6">
         <v>22</v>
@@ -1621,11 +1651,11 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>0</v>
+      <c r="B79" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C79" s="6">
         <v>262</v>
@@ -1635,11 +1665,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
+      <c r="B80" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C80" s="6">
         <v>61</v>
@@ -1649,11 +1679,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>16</v>
+      <c r="B81" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C81" s="6">
         <v>222</v>
@@ -1663,39 +1693,39 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>11</v>
+      <c r="B82" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="6">
         <v>196</v>
       </c>
       <c r="D82" s="6">
-        <v>14890</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>5</v>
+      <c r="B83" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C83" s="6">
         <v>383</v>
       </c>
       <c r="D83" s="6">
-        <v>11930</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>10</v>
+      <c r="B84" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C84" s="6">
         <v>135</v>
@@ -1705,11 +1735,11 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>2</v>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C85" s="6">
         <v>165</v>
@@ -1719,598 +1749,598 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="6">
         <v>432</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="6">
         <v>20203</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>12</v>
+      <c r="B87" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C87" s="6">
         <v>164</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="6">
         <v>12322</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>15</v>
+      <c r="B88" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C88" s="6">
         <v>1308</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="6">
         <v>42988</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>7</v>
+      <c r="B89" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C89" s="6">
         <v>178</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="6">
         <v>4095</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>14</v>
+      <c r="B90" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C90" s="6">
         <v>132</v>
       </c>
-      <c r="D90" s="8">
-        <v>3980</v>
+      <c r="D90" s="6">
+        <v>3988</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>8</v>
+      <c r="B91" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C91" s="6">
         <v>502</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="6">
         <v>30753</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>13</v>
+      <c r="B92" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C92" s="6">
         <v>868</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="6">
         <v>50105</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>6</v>
+      <c r="B93" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C93" s="6">
         <v>727</v>
       </c>
-      <c r="D93" s="8">
-        <v>46890</v>
+      <c r="D93" s="6">
+        <v>4689</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>3</v>
+      <c r="B94" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C94" s="6">
         <v>326</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="6">
         <v>17995</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>4</v>
+      <c r="B95" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C95" s="6">
         <v>601</v>
       </c>
-      <c r="D95" s="8">
-        <v>32870</v>
+      <c r="D95" s="6">
+        <v>3287</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>29</v>
+      <c r="B96" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C96" s="6">
         <v>2588</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>215896</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>17</v>
+      <c r="B97" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C97" s="6">
         <v>40</v>
       </c>
-      <c r="D97" s="8">
-        <v>5792</v>
+      <c r="D97" s="6">
+        <v>5784</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>30</v>
+      <c r="B98" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C98" s="6">
         <v>2267</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>282560</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>18</v>
+      <c r="B99" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C99" s="6">
         <v>17</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="6">
         <v>1203</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>0</v>
+      <c r="B100" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C100" s="6">
         <v>242</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="6">
         <v>32525</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
+      <c r="B101" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C101" s="6">
         <v>61</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="6">
         <v>4306</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>16</v>
+      <c r="B102" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C102" s="6">
         <v>231</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="6">
         <v>15519</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>11</v>
+      <c r="B103" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C103" s="6">
         <v>196</v>
       </c>
-      <c r="D103" s="8">
-        <v>14890</v>
+      <c r="D103" s="6">
+        <v>1489</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>5</v>
+      <c r="B104" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C104" s="6">
         <v>392</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="6">
         <v>18655</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>10</v>
+      <c r="B105" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C105" s="6">
         <v>131</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="6">
         <v>4664</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>2</v>
+      <c r="B106" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C106" s="6">
         <v>171</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="6">
         <v>8250</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="6">
         <v>417</v>
       </c>
       <c r="D107" s="6">
-        <v>16237</v>
+        <v>16053</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>12</v>
+      <c r="B108" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C108" s="6">
         <v>164</v>
       </c>
       <c r="D108" s="6">
-        <v>12705</v>
+        <v>12472</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>15</v>
+      <c r="B109" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C109" s="6">
         <v>1305</v>
       </c>
       <c r="D109" s="6">
-        <v>46015</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>7</v>
+      <c r="B110" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C110" s="6">
         <v>175</v>
       </c>
       <c r="D110" s="6">
-        <v>5798</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>14</v>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C111" s="6">
         <v>131</v>
       </c>
       <c r="D111" s="6">
-        <v>3725</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>8</v>
+      <c r="B112" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C112" s="6">
         <v>502</v>
       </c>
       <c r="D112" s="6">
-        <v>31109</v>
+        <v>30753</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>13</v>
+      <c r="B113" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C113" s="6">
         <v>871</v>
       </c>
       <c r="D113" s="6">
-        <v>45693</v>
+        <v>51106</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>6</v>
+      <c r="B114" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C114" s="6">
         <v>718</v>
       </c>
       <c r="D114" s="6">
-        <v>45973</v>
+        <v>46392</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>3</v>
+      <c r="B115" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C115" s="6">
         <v>325</v>
       </c>
       <c r="D115" s="6">
-        <v>19655</v>
+        <v>18825</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>4</v>
+      <c r="B116" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C116" s="6">
         <v>593</v>
       </c>
       <c r="D116" s="6">
-        <v>31789</v>
+        <v>33029</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>29</v>
+      <c r="B117" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C117" s="6">
         <v>2478</v>
       </c>
-      <c r="D117" s="6">
-        <v>212306</v>
+      <c r="D117" s="7">
+        <v>216329</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>17</v>
+      <c r="B118" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C118" s="6">
         <v>28</v>
       </c>
       <c r="D118" s="6">
-        <v>4985</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>30</v>
+      <c r="B119" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C119" s="6">
         <v>2200</v>
       </c>
-      <c r="D119" s="6">
-        <v>278298</v>
+      <c r="D119" s="7">
+        <v>279625</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>18</v>
+      <c r="B120" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C120" s="6">
         <v>14</v>
       </c>
       <c r="D120" s="6">
-        <v>988</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>0</v>
+      <c r="B121" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C121" s="6">
         <v>238</v>
       </c>
       <c r="D121" s="6">
-        <v>29371</v>
+        <v>28805</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>9</v>
+      <c r="B122" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C122" s="6">
         <v>61</v>
       </c>
       <c r="D122" s="6">
-        <v>4600</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>16</v>
+      <c r="B123" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C123" s="6">
         <v>230</v>
       </c>
       <c r="D123" s="6">
-        <v>17116</v>
+        <v>15519</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>11</v>
+      <c r="B124" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C124" s="6">
         <v>193</v>
       </c>
       <c r="D124" s="6">
-        <v>15645</v>
+        <v>14791</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>5</v>
+      <c r="B125" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C125" s="6">
         <v>390</v>
       </c>
       <c r="D125" s="6">
-        <v>16813</v>
+        <v>15013</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>10</v>
+      <c r="B126" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C126" s="6">
         <v>130</v>
       </c>
       <c r="D126" s="6">
-        <v>4907</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>2</v>
+      <c r="B127" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C127" s="6">
         <v>163</v>
       </c>
       <c r="D127" s="6">
-        <v>9034</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="6">
@@ -2321,11 +2351,11 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>12</v>
+      <c r="B129" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C129" s="6">
         <v>165</v>
@@ -2335,11 +2365,11 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>15</v>
+      <c r="B130" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C130" s="6">
         <v>1307</v>
@@ -2349,11 +2379,11 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>7</v>
+      <c r="B131" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C131" s="6">
         <v>173</v>
@@ -2363,11 +2393,11 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>14</v>
+      <c r="B132" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C132" s="6">
         <v>131</v>
@@ -2377,11 +2407,11 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>8</v>
+      <c r="B133" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C133" s="6">
         <v>505</v>
@@ -2391,11 +2421,11 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>13</v>
+      <c r="B134" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C134" s="6">
         <v>923</v>
@@ -2405,11 +2435,11 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>6</v>
+      <c r="B135" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C135" s="6">
         <v>699</v>
@@ -2419,11 +2449,11 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
+      <c r="B136" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C136" s="6">
         <v>321</v>
@@ -2433,11 +2463,11 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>4</v>
+      <c r="B137" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C137" s="6">
         <v>575</v>
@@ -2447,25 +2477,25 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>29</v>
+      <c r="B138" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C138" s="6">
         <v>2499</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="7">
         <v>213352</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>17</v>
+      <c r="B139" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C139" s="6">
         <v>21</v>
@@ -2475,25 +2505,25 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>30</v>
+      <c r="B140" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C140" s="6">
         <v>2116</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="7">
         <v>271036</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>18</v>
+      <c r="B141" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C141" s="6">
         <v>11</v>
@@ -2503,11 +2533,11 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>0</v>
+      <c r="B142" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C142" s="6">
         <v>224</v>
@@ -2517,11 +2547,11 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>9</v>
+      <c r="B143" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C143" s="6">
         <v>60</v>
@@ -2531,11 +2561,11 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>16</v>
+      <c r="B144" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C144" s="6">
         <v>228</v>
@@ -2545,11 +2575,11 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>11</v>
+      <c r="B145" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C145" s="6">
         <v>193</v>
@@ -2559,11 +2589,11 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>5</v>
+      <c r="B146" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C146" s="6">
         <v>401</v>
@@ -2573,11 +2603,11 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>10</v>
+      <c r="B147" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C147" s="6">
         <v>130</v>
@@ -2587,11 +2617,11 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>2</v>
+      <c r="B148" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C148" s="6">
         <v>163</v>
@@ -2601,10 +2631,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="6">
@@ -2615,11 +2645,11 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>12</v>
+      <c r="B150" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C150" s="6">
         <v>165</v>
@@ -2629,11 +2659,11 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>15</v>
+      <c r="B151" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C151" s="6">
         <v>1307</v>
@@ -2643,11 +2673,11 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>7</v>
+      <c r="B152" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C152" s="6">
         <v>169</v>
@@ -2657,11 +2687,11 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>14</v>
+      <c r="B153" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C153" s="6">
         <v>128</v>
@@ -2671,11 +2701,11 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>8</v>
+      <c r="B154" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C154" s="6">
         <v>486</v>
@@ -2685,11 +2715,11 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>13</v>
+      <c r="B155" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C155" s="6">
         <v>911</v>
@@ -2699,11 +2729,11 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>6</v>
+      <c r="B156" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C156" s="6">
         <v>671</v>
@@ -2713,11 +2743,11 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>3</v>
+      <c r="B157" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C157" s="6">
         <v>307</v>
@@ -2727,11 +2757,11 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>4</v>
+      <c r="B158" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C158" s="6">
         <v>537</v>
@@ -2741,25 +2771,25 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>29</v>
+      <c r="B159" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C159" s="6">
         <v>2491</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="7">
         <v>211804</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>17</v>
+      <c r="B160" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C160" s="6">
         <v>21</v>
@@ -2769,25 +2799,25 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>30</v>
+      <c r="B161" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C161" s="6">
         <v>2019</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="7">
         <v>265061</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>18</v>
+      <c r="B162" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C162" s="6">
         <v>8</v>
@@ -2797,11 +2827,11 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>0</v>
+      <c r="B163" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C163" s="6">
         <v>216</v>
@@ -2811,11 +2841,11 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>9</v>
+      <c r="B164" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C164" s="6">
         <v>60</v>
@@ -2825,11 +2855,11 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>16</v>
+      <c r="B165" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C165" s="6">
         <v>215</v>
@@ -2839,11 +2869,11 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>11</v>
+      <c r="B166" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C166" s="6">
         <v>182</v>
@@ -2853,11 +2883,11 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>5</v>
+      <c r="B167" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C167" s="6">
         <v>389</v>
@@ -2867,11 +2897,11 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>10</v>
+      <c r="B168" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C168" s="6">
         <v>125</v>
@@ -2881,11 +2911,11 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>2</v>
+      <c r="B169" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C169" s="6">
         <v>154</v>
@@ -2895,590 +2925,590 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="6">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D170" s="6">
-        <v>14383</v>
+        <v>15284</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>12</v>
+      <c r="B171" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="C171" s="6">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D171" s="6">
-        <v>12662</v>
+        <v>12462</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="6">
+        <v>1283</v>
+      </c>
+      <c r="D172" s="6">
+        <v>41356</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="6">
+        <v>169</v>
+      </c>
+      <c r="D173" s="6">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="6">
+        <v>128</v>
+      </c>
+      <c r="D174" s="6">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="6">
+        <v>478</v>
+      </c>
+      <c r="D175" s="6">
+        <v>29501</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="6">
+        <v>875</v>
+      </c>
+      <c r="D176" s="6">
+        <v>51024</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="6">
+        <v>645</v>
+      </c>
+      <c r="D177" s="6">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="6">
+        <v>299</v>
+      </c>
+      <c r="D178" s="6">
+        <v>17777</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="6">
+        <v>501</v>
+      </c>
+      <c r="D179" s="6">
+        <v>26109</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="6">
-        <v>1280</v>
-      </c>
-      <c r="D172" s="6">
-        <v>41600</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="C180" s="6">
+        <v>2469</v>
+      </c>
+      <c r="D180" s="13">
+        <v>208161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="6">
-        <v>167</v>
-      </c>
-      <c r="D173" s="6">
-        <v>4391</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="6">
-        <v>122</v>
-      </c>
-      <c r="D174" s="6">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="6">
-        <v>480</v>
-      </c>
-      <c r="D175" s="6">
-        <v>30527</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="6">
-        <v>830</v>
-      </c>
-      <c r="D176" s="6">
-        <v>49559</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="6">
-        <v>655</v>
-      </c>
-      <c r="D177" s="6">
-        <v>47675</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="6">
-        <v>306</v>
-      </c>
-      <c r="D178" s="6">
-        <v>19174</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="6">
-        <v>498</v>
-      </c>
-      <c r="D179" s="6">
-        <v>26680</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C180" s="6">
-        <v>2694</v>
-      </c>
-      <c r="D180" s="6">
-        <v>210312</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>17</v>
+      <c r="B181" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C181" s="6">
         <v>19</v>
       </c>
       <c r="D181" s="6">
-        <v>1752</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>30</v>
+      <c r="B182" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C182" s="6">
-        <v>1828</v>
-      </c>
-      <c r="D182" s="6">
-        <v>248987</v>
+        <v>1897</v>
+      </c>
+      <c r="D182" s="13">
+        <v>255755</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C183" s="6">
+        <v>6</v>
+      </c>
+      <c r="D183" s="6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="6">
+        <v>203</v>
+      </c>
+      <c r="D184" s="6">
+        <v>26504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="6">
+        <v>60</v>
+      </c>
+      <c r="D185" s="6">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="6">
+        <v>180</v>
+      </c>
+      <c r="D186" s="6">
+        <v>14214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="6">
+        <v>160</v>
+      </c>
+      <c r="D187" s="6">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="6">
+        <v>363</v>
+      </c>
+      <c r="D188" s="6">
+        <v>13838</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="6">
+        <v>122</v>
+      </c>
+      <c r="D189" s="6">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="6">
+        <v>145</v>
+      </c>
+      <c r="D190" s="6">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="14">
+        <v>415</v>
+      </c>
+      <c r="D191" s="14">
+        <v>15193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="14">
+        <v>157</v>
+      </c>
+      <c r="D192" s="14">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="14">
+        <v>1277</v>
+      </c>
+      <c r="D193" s="14">
+        <v>40882</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="14">
+        <v>168</v>
+      </c>
+      <c r="D194" s="14">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="14">
+        <v>124</v>
+      </c>
+      <c r="D195" s="14">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="14">
+        <v>468</v>
+      </c>
+      <c r="D196" s="14">
+        <v>28430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="14">
+        <v>817</v>
+      </c>
+      <c r="D197" s="14">
+        <v>49334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="14">
+        <v>637</v>
+      </c>
+      <c r="D198" s="14">
+        <v>41136</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="14">
+        <v>298</v>
+      </c>
+      <c r="D199" s="14">
+        <v>17747</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="14">
+        <v>496</v>
+      </c>
+      <c r="D200" s="14">
+        <v>25776</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="14">
+        <v>2685</v>
+      </c>
+      <c r="D201" s="7">
+        <v>209602</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C202" s="14">
+        <v>19</v>
+      </c>
+      <c r="D202" s="14">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" s="14">
+        <v>1825</v>
+      </c>
+      <c r="D203" s="7">
+        <v>250202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" s="14">
         <v>3</v>
       </c>
-      <c r="D183" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="6">
-        <v>202</v>
-      </c>
-      <c r="D184" s="6">
-        <v>27326</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185" s="6">
-        <v>62</v>
-      </c>
-      <c r="D185" s="6">
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B186" s="2" t="s">
+      <c r="D204" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="6">
-        <v>122</v>
-      </c>
-      <c r="D186" s="6">
-        <v>13364</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="6">
-        <v>155</v>
-      </c>
-      <c r="D187" s="6">
-        <v>13196</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" s="2" t="s">
+      <c r="C205" s="14">
+        <v>199</v>
+      </c>
+      <c r="D205" s="14">
+        <v>26266</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="14">
+        <v>60</v>
+      </c>
+      <c r="D206" s="14">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="14">
+        <v>116</v>
+      </c>
+      <c r="D207" s="14">
+        <v>12984</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="14">
+        <v>160</v>
+      </c>
+      <c r="D208" s="14">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="14">
+        <v>347</v>
+      </c>
+      <c r="D209" s="14">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="14">
+        <v>119</v>
+      </c>
+      <c r="D210" s="14">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C188" s="6">
-        <v>347</v>
-      </c>
-      <c r="D188" s="6">
-        <v>13907</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="6">
-        <v>119</v>
-      </c>
-      <c r="D189" s="6">
-        <v>3954</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="6">
+      <c r="C211" s="14">
         <v>123</v>
       </c>
-      <c r="D190" s="6">
-        <v>6986</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="8">
-        <v>415</v>
-      </c>
-      <c r="D191" s="6">
-        <v>15193</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="8">
-        <v>157</v>
-      </c>
-      <c r="D192" s="6">
-        <v>12262</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C193" s="8">
-        <v>1277</v>
-      </c>
-      <c r="D193" s="6">
-        <v>40882</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="8">
-        <v>168</v>
-      </c>
-      <c r="D194" s="6">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="8">
-        <v>124</v>
-      </c>
-      <c r="D195" s="6">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="8">
-        <v>468</v>
-      </c>
-      <c r="D196" s="6">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" s="8">
-        <v>817</v>
-      </c>
-      <c r="D197" s="6">
-        <v>49334</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="8">
-        <v>637</v>
-      </c>
-      <c r="D198" s="6">
-        <v>41136</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="8">
-        <v>298</v>
-      </c>
-      <c r="D199" s="6">
-        <v>17747</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="8">
-        <v>496</v>
-      </c>
-      <c r="D200" s="6">
-        <v>25776</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" s="8">
-        <v>2685</v>
-      </c>
-      <c r="D201" s="9">
-        <v>209602</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C202" s="8">
-        <v>19</v>
-      </c>
-      <c r="D202" s="6">
-        <v>4511</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C203" s="8">
-        <v>1825</v>
-      </c>
-      <c r="D203" s="9">
-        <v>250202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" s="8">
-        <v>3</v>
-      </c>
-      <c r="D204" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="8">
-        <v>199</v>
-      </c>
-      <c r="D205" s="6">
-        <v>26266</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" s="8">
-        <v>61</v>
-      </c>
-      <c r="D206" s="6">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C207" s="8">
-        <v>122</v>
-      </c>
-      <c r="D207" s="6">
-        <v>12984</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="8">
-        <v>155</v>
-      </c>
-      <c r="D208" s="6">
-        <v>13145</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" s="8">
-        <v>345</v>
-      </c>
-      <c r="D209" s="6">
-        <v>13290</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C210" s="8">
-        <v>119</v>
-      </c>
-      <c r="D210" s="6">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.7" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="8">
-        <v>123</v>
-      </c>
-      <c r="D211" s="6">
+      <c r="D211" s="14">
         <v>6857</v>
       </c>
     </row>
